--- a/Figure 2 + S1/2B - Extant species in phyla/Phyla extant species.xlsx
+++ b/Figure 2 + S1/2B - Extant species in phyla/Phyla extant species.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe McUnt\Desktop\scary stuff\Summer Research\PROJECT FILES\code stuff\Figure work\2A - Phyla infected by microsporidia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Shared\Microsporidia database\Figure 2\2B - Extant species in phyla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AD2D43-7556-43D9-B5C7-CD821FDFB881}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFD9B74-BC19-4188-9BF8-3A46B5F14BE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sources" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="46">
   <si>
     <t>Extant_species</t>
   </si>
@@ -37,23 +47,145 @@
   </si>
   <si>
     <t>Uninfected</t>
+  </si>
+  <si>
+    <t>Brachiopoda</t>
+  </si>
+  <si>
+    <t>CoL</t>
+  </si>
+  <si>
+    <t>Chaetognatha</t>
+  </si>
+  <si>
+    <t>Ctenophora</t>
+  </si>
+  <si>
+    <t>Cycliophora</t>
+  </si>
+  <si>
+    <t>Echinodermata</t>
+  </si>
+  <si>
+    <t>Entoprocta</t>
+  </si>
+  <si>
+    <t>Gnathostomulida</t>
+  </si>
+  <si>
+    <t>Hemichordata</t>
+  </si>
+  <si>
+    <t>Micrognathozoa</t>
+  </si>
+  <si>
+    <t>Nematomorpha</t>
+  </si>
+  <si>
+    <t>Onychophora</t>
+  </si>
+  <si>
+    <t>Orthonectida</t>
+  </si>
+  <si>
+    <t>Placozoa</t>
+  </si>
+  <si>
+    <t>Sipuncula</t>
+  </si>
+  <si>
+    <t>Tardigrada</t>
+  </si>
+  <si>
+    <t>Xenacoelomorpha</t>
+  </si>
+  <si>
+    <t>No. extant species</t>
+  </si>
+  <si>
+    <t>Arthropoda</t>
+  </si>
+  <si>
+    <t>Chordata</t>
+  </si>
+  <si>
+    <t>**Platyhelminthes</t>
+  </si>
+  <si>
+    <t>Annelida</t>
+  </si>
+  <si>
+    <t>Mollusca</t>
+  </si>
+  <si>
+    <t>Nematoda</t>
+  </si>
+  <si>
+    <t>Bryozoa</t>
+  </si>
+  <si>
+    <t>**Cnidaria</t>
+  </si>
+  <si>
+    <t>Nemertea</t>
+  </si>
+  <si>
+    <t>Rotifera</t>
+  </si>
+  <si>
+    <t>**Acanthocephala</t>
+  </si>
+  <si>
+    <t>Cephalorhyncha</t>
+  </si>
+  <si>
+    <t>Dicyemida</t>
+  </si>
+  <si>
+    <t>Gastrotricha</t>
+  </si>
+  <si>
+    <t>Phoronida</t>
+  </si>
+  <si>
+    <t>Porifera</t>
+  </si>
+  <si>
+    <t>Phylum</t>
+  </si>
+  <si>
+    <t>Platyhelminthes</t>
+  </si>
+  <si>
+    <t>Cnidaria</t>
+  </si>
+  <si>
+    <t>Acanthocephala</t>
+  </si>
+  <si>
+    <t>Infected metazoans</t>
+  </si>
+  <si>
+    <t>Uninfected metazoans</t>
+  </si>
+  <si>
+    <t>data src</t>
+  </si>
+  <si>
+    <t>**parasitic phylum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -76,16 +208,65 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -93,23 +274,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,295 +601,779 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1">
         <v>1082297</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1">
         <v>69913</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1">
         <v>18616</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1">
         <v>14399</v>
       </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2">
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1">
         <v>65442</v>
       </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2">
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1">
         <v>3455</v>
       </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2">
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1">
         <v>5434</v>
       </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2">
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1">
         <v>11151</v>
       </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2">
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1">
         <v>2014</v>
       </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3">
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1373</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="2">
         <v>1330</v>
       </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2">
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1">
         <v>237</v>
       </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2">
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1">
         <v>122</v>
       </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2">
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1">
         <v>852</v>
       </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2">
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2">
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="1">
         <v>9092</v>
       </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="4">
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3">
         <v>396</v>
       </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="5">
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="4">
         <v>132</v>
       </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="5">
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="4">
         <v>200</v>
       </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="5">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="5">
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="4">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="4">
         <v>6828</v>
       </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="5">
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="4">
         <v>171</v>
       </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="5">
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="4">
         <v>100</v>
       </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="5">
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="4">
         <v>139</v>
       </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="5">
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="4">
         <v>1</v>
       </c>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="5">
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="4">
         <v>361</v>
       </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="5">
-        <v>1371</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="5">
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="4">
         <v>167</v>
       </c>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="5">
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="4">
         <v>25</v>
       </c>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="5">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="5">
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="4">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="4">
         <v>205</v>
       </c>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="5">
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="4">
         <v>1018</v>
       </c>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="5">
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="4">
         <v>456</v>
       </c>
-      <c r="B33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="5"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="5"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="5"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="5"/>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563396AC-F081-4761-AE59-4CA7C351A37C}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="20"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3">
+        <v>396</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1082297</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4">
+        <v>132</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1">
+        <v>69913</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4">
+        <v>200</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1">
+        <v>18616</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1">
+        <v>14399</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4">
+        <v>6828</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1">
+        <v>65442</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4">
+        <v>171</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3455</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4">
+        <v>100</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5434</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4">
+        <v>139</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1">
+        <v>11151</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1373</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4">
+        <v>361</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4">
+        <v>167</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1330</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="1">
+        <v>237</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="1">
+        <v>122</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="4">
+        <v>205</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="1">
+        <v>852</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1018</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="1">
+        <v>19</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="4">
+        <v>456</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="1">
+        <v>9092</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="12"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="11"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E21" s="10"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>